--- a/src/devices/edge_devices_v0.0.1.xlsx
+++ b/src/devices/edge_devices_v0.0.1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\z0044bsj\Desktop\API_app_example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE6AC4D6-5127-45C8-BB3D-E0CE4B45BB48}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C814D157-CFF9-4BBB-A97E-23AD83F472F8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6C038622-31ED-4E4C-8AD3-BA89D21E8C25}"/>
+    <workbookView xWindow="-24495" yWindow="0" windowWidth="19590" windowHeight="12360" activeTab="1" xr2:uid="{6C038622-31ED-4E4C-8AD3-BA89D21E8C25}"/>
   </bookViews>
   <sheets>
     <sheet name="DEVICE_CONFIG" sheetId="7" r:id="rId1"/>
@@ -170,9 +170,6 @@
     <t>192.168.1.1, 192.168.1.1</t>
   </si>
   <si>
-    <t>192.168.1.108, 192.168.1.106</t>
-  </si>
-  <si>
     <t>false, true</t>
   </si>
   <si>
@@ -180,6 +177,9 @@
   </si>
   <si>
     <t>00:0C:29:FC:EA:3E, 00:0C:29:FC:EA:48</t>
+  </si>
+  <si>
+    <t>192.168.1.91, 192.168.1.109</t>
   </si>
 </sst>
 </file>
@@ -560,8 +560,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -621,8 +621,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -702,7 +702,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>30</v>
@@ -711,7 +711,7 @@
         <v>39</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>40</v>
@@ -728,7 +728,7 @@
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
@@ -916,7 +916,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/src/devices/edge_devices_v0.0.1.xlsx
+++ b/src/devices/edge_devices_v0.0.1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\z0044bsj\Desktop\API_app_example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C814D157-CFF9-4BBB-A97E-23AD83F472F8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A72EE89B-2941-45D2-AC92-F812D4E09692}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24495" yWindow="0" windowWidth="19590" windowHeight="12360" activeTab="1" xr2:uid="{6C038622-31ED-4E4C-8AD3-BA89D21E8C25}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{6C038622-31ED-4E4C-8AD3-BA89D21E8C25}"/>
   </bookViews>
   <sheets>
     <sheet name="DEVICE_CONFIG" sheetId="7" r:id="rId1"/>
@@ -179,7 +179,7 @@
     <t>00:0C:29:FC:EA:3E, 00:0C:29:FC:EA:48</t>
   </si>
   <si>
-    <t>192.168.1.91, 192.168.1.109</t>
+    <t>192.168.1.108, 192.168.1.109</t>
   </si>
 </sst>
 </file>
@@ -621,8 +621,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/src/devices/edge_devices_v0.0.1.xlsx
+++ b/src/devices/edge_devices_v0.0.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\z0044bsj\Desktop\API_app_example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A72EE89B-2941-45D2-AC92-F812D4E09692}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C20ABB4E-EB2B-45E8-84B7-FC83EDACB4A9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{6C038622-31ED-4E4C-8AD3-BA89D21E8C25}"/>
   </bookViews>
@@ -179,7 +179,7 @@
     <t>00:0C:29:FC:EA:3E, 00:0C:29:FC:EA:48</t>
   </si>
   <si>
-    <t>192.168.1.108, 192.168.1.109</t>
+    <t>192.168.1.92, 192.168.1.109</t>
   </si>
 </sst>
 </file>
@@ -622,7 +622,7 @@
   <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
